--- a/2021.08/엑셀_실습자료_사용.xlsx
+++ b/2021.08/엑셀_실습자료_사용.xlsx
@@ -69,9 +69,9 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId16"/>
-    <pivotCache cacheId="20" r:id="rId17"/>
-    <pivotCache cacheId="12" r:id="rId18"/>
+    <pivotCache cacheId="0" r:id="rId16"/>
+    <pivotCache cacheId="1" r:id="rId17"/>
+    <pivotCache cacheId="2" r:id="rId18"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -2053,7 +2053,7 @@
     <numFmt numFmtId="183" formatCode="h&quot;시&quot;\ mm&quot;분&quot;;@"/>
     <numFmt numFmtId="184" formatCode="&quot;대&quot;&quot;전&quot;\ @"/>
     <numFmt numFmtId="185" formatCode="#,##0&quot;₩&quot;"/>
-    <numFmt numFmtId="188" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
+    <numFmt numFmtId="186" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -3178,48 +3178,6 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3286,7 +3244,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="188" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="186" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3328,13 +3286,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="8" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
@@ -3350,22 +3302,67 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3376,26 +3373,29 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3405,1424 +3405,6 @@
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="189">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <top style="thin">
-          <color theme="5"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="5"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="5"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <top style="thin">
-          <color theme="5"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="5"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="5"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <top style="thin">
-          <color theme="5"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="5"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="5"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <top style="thin">
-          <color theme="5"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="5"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="5"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <top style="thin">
-          <color theme="5"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="5"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="5"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <top style="thin">
-          <color theme="5"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="5"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="5"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <top style="thin">
-          <color theme="5"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="5"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="5"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <top style="thin">
-          <color theme="5"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="5"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="5"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <top style="thin">
-          <color theme="5"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="5"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="5"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <top style="thin">
-          <color theme="5"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="5"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="5"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="176" formatCode="hh:mm"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
@@ -5377,6 +3959,580 @@
         <name val="맑은 고딕"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="5"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="5"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="5"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="5"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="5"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="5"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="5"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="5"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="5"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="5"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="5"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="5"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="5"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="5"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="5"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="5"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="5"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="5"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="5"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="5"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -5669,6 +4825,74 @@
         <top/>
         <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -6344,6 +5568,782 @@
         <bottom/>
       </border>
     </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="hh:mm"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -6476,90 +6476,8 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="85000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ko-KR"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -7799,9 +7717,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -8378,7 +8294,6 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -8415,9 +8330,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -8450,8 +8363,9 @@
             </a:gsLst>
             <a:lin ang="5400000" scaled="0"/>
           </a:gradFill>
-          <a:ln>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:noFill/>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
           <a:sp3d/>
@@ -8500,7 +8414,6 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -8538,11 +8451,279 @@
           <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent3">
+                  <a:tint val="48000"/>
+                  <a:lumMod val="110000"/>
+                  <a:satMod val="105000"/>
+                  <a:tint val="67000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent3">
+                  <a:tint val="48000"/>
+                  <a:lumMod val="105000"/>
+                  <a:satMod val="103000"/>
+                  <a:tint val="73000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent3">
+                  <a:tint val="48000"/>
+                  <a:lumMod val="105000"/>
+                  <a:satMod val="109000"/>
+                  <a:tint val="81000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent3">
+                  <a:tint val="65000"/>
+                  <a:lumMod val="110000"/>
+                  <a:satMod val="105000"/>
+                  <a:tint val="67000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent3">
+                  <a:tint val="65000"/>
+                  <a:lumMod val="105000"/>
+                  <a:satMod val="103000"/>
+                  <a:tint val="73000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent3">
+                  <a:tint val="65000"/>
+                  <a:lumMod val="105000"/>
+                  <a:satMod val="109000"/>
+                  <a:tint val="81000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent3">
+                  <a:tint val="83000"/>
+                  <a:lumMod val="110000"/>
+                  <a:satMod val="105000"/>
+                  <a:tint val="67000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent3">
+                  <a:tint val="83000"/>
+                  <a:lumMod val="105000"/>
+                  <a:satMod val="103000"/>
+                  <a:tint val="73000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent3">
+                  <a:tint val="83000"/>
+                  <a:lumMod val="105000"/>
+                  <a:satMod val="109000"/>
+                  <a:tint val="81000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="110000"/>
+                  <a:satMod val="105000"/>
+                  <a:tint val="67000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="105000"/>
+                  <a:satMod val="103000"/>
+                  <a:tint val="73000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="105000"/>
+                  <a:satMod val="109000"/>
+                  <a:tint val="81000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent3">
+                  <a:shade val="82000"/>
+                  <a:lumMod val="110000"/>
+                  <a:satMod val="105000"/>
+                  <a:tint val="67000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent3">
+                  <a:shade val="82000"/>
+                  <a:lumMod val="105000"/>
+                  <a:satMod val="103000"/>
+                  <a:tint val="73000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent3">
+                  <a:shade val="82000"/>
+                  <a:lumMod val="105000"/>
+                  <a:satMod val="109000"/>
+                  <a:tint val="81000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent3">
+                  <a:shade val="65000"/>
+                  <a:lumMod val="110000"/>
+                  <a:satMod val="105000"/>
+                  <a:tint val="67000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent3">
+                  <a:shade val="65000"/>
+                  <a:lumMod val="105000"/>
+                  <a:satMod val="103000"/>
+                  <a:tint val="73000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent3">
+                  <a:shade val="65000"/>
+                  <a:lumMod val="105000"/>
+                  <a:satMod val="109000"/>
+                  <a:tint val="81000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent3">
+                  <a:shade val="47000"/>
+                  <a:lumMod val="110000"/>
+                  <a:satMod val="105000"/>
+                  <a:tint val="67000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent3">
+                  <a:shade val="47000"/>
+                  <a:lumMod val="105000"/>
+                  <a:satMod val="103000"/>
+                  <a:tint val="73000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent3">
+                  <a:shade val="47000"/>
+                  <a:lumMod val="105000"/>
+                  <a:satMod val="109000"/>
+                  <a:tint val="81000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:view3D>
@@ -8641,6 +8822,11 @@
               <a:effectLst/>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-780A-4E91-A5AD-F832DB5F4E41}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -8681,6 +8867,11 @@
               <a:effectLst/>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-780A-4E91-A5AD-F832DB5F4E41}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -8721,6 +8912,11 @@
               <a:effectLst/>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-780A-4E91-A5AD-F832DB5F4E41}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -8758,6 +8954,11 @@
               <a:effectLst/>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-780A-4E91-A5AD-F832DB5F4E41}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -8798,6 +8999,11 @@
               <a:effectLst/>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-780A-4E91-A5AD-F832DB5F4E41}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -8838,6 +9044,11 @@
               <a:effectLst/>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-780A-4E91-A5AD-F832DB5F4E41}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -8878,6 +9089,11 @@
               <a:effectLst/>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-780A-4E91-A5AD-F832DB5F4E41}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -8931,9 +9147,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -9856,7 +10070,6 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -9893,9 +10106,7 @@
           <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -10031,7 +10242,6 @@
         </c:spPr>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -10068,9 +10278,7 @@
           <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -10120,7 +10328,6 @@
         </c:spPr>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -10157,9 +10364,7 @@
           <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -10209,7 +10414,6 @@
         </c:spPr>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -10246,9 +10450,7 @@
           <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -10256,7 +10458,6 @@
         <c:idx val="11"/>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -10293,9 +10494,7 @@
           <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -10345,7 +10544,6 @@
         </c:spPr>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -10382,9 +10580,7 @@
           <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -10664,7 +10860,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:dLblPos val="outEnd"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -10673,9 +10868,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000000-328B-4708-BBCE-090568F3F8A6}"/>
                 </c:ext>
@@ -10683,7 +10876,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
-              <c:layout/>
               <c:dLblPos val="outEnd"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -10692,9 +10884,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-328B-4708-BBCE-090568F3F8A6}"/>
                 </c:ext>
@@ -10702,7 +10892,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
-              <c:layout/>
               <c:dLblPos val="outEnd"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -10711,9 +10900,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-328B-4708-BBCE-090568F3F8A6}"/>
                 </c:ext>
@@ -10721,7 +10908,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
-              <c:layout/>
               <c:dLblPos val="outEnd"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -10730,9 +10916,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-328B-4708-BBCE-090568F3F8A6}"/>
                 </c:ext>
@@ -10988,6 +11172,34 @@
     <c:pivotFmts>
       <c:pivotFmt>
         <c:idx val="0"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+          </a:ln>
+          <a:effectLst>
+            <a:glow rad="63500">
+              <a:schemeClr val="accent1">
+                <a:satMod val="175000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:glow>
+          </a:effectLst>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -11359,7 +11571,7 @@
         <c:idx val="1"/>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="4"/>
+        <c:idx val="2"/>
         <c:spPr>
           <a:gradFill rotWithShape="1">
             <a:gsLst>
@@ -11404,7 +11616,6 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:spPr>
             <a:solidFill>
               <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -11454,13 +11665,12 @@
                   <a:noFill/>
                 </a:ln>
               </c15:spPr>
-              <c15:layout/>
             </c:ext>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="5"/>
+        <c:idx val="3"/>
         <c:spPr>
           <a:gradFill rotWithShape="1">
             <a:gsLst>
@@ -11534,10 +11744,19 @@
               <a:endParaRPr lang="ko-KR"/>
             </a:p>
           </c:txPr>
+          <c:showLegendKey val="1"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="1"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="6"/>
+        <c:idx val="4"/>
         <c:spPr>
           <a:gradFill rotWithShape="1">
             <a:gsLst>
@@ -11582,7 +11801,6 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -11619,11 +11837,273 @@
           <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:shade val="70000"/>
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:shade val="70000"/>
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:shade val="70000"/>
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:shade val="90000"/>
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:shade val="90000"/>
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:shade val="90000"/>
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:tint val="70000"/>
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:tint val="70000"/>
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:tint val="70000"/>
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:view3D>
@@ -11779,6 +12259,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-C5C7-4A97-B652-D49F867C3F89}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -11825,6 +12310,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-C5C7-4A97-B652-D49F867C3F89}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -11871,6 +12361,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-C5C7-4A97-B652-D49F867C3F89}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -11917,6 +12412,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-C5C7-4A97-B652-D49F867C3F89}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -11963,6 +12463,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-C5C7-4A97-B652-D49F867C3F89}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -12015,9 +12520,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -14012,9 +14515,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -28947,8 +29448,8 @@
       <xdr:row>1</xdr:row>
       <xdr:rowOff>1323975</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+      <mc:Choice Requires="sle15">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="3" name="지출항목"/>
@@ -28965,7 +29466,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -29019,8 +29520,8 @@
       <xdr:row>1</xdr:row>
       <xdr:rowOff>1314450</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+      <mc:Choice Requires="sle15">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="4" name="지출지역"/>
@@ -29037,7 +29538,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -29091,8 +29592,8 @@
       <xdr:row>1</xdr:row>
       <xdr:rowOff>1295401</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+      <mc:Choice Requires="sle15">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="5" name="결제방법 1"/>
@@ -29109,7 +29610,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -30560,8 +31061,8 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>34018</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="4" name="월"/>
@@ -30578,7 +31079,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -30632,8 +31133,8 @@
       <xdr:row>29</xdr:row>
       <xdr:rowOff>145596</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="5" name="분기"/>
@@ -30650,7 +31151,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -30824,8 +31325,8 @@
       <xdr:row>44</xdr:row>
       <xdr:rowOff>148318</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="10" name="지출항목 1"/>
@@ -30842,7 +31343,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -30896,8 +31397,8 @@
       <xdr:row>44</xdr:row>
       <xdr:rowOff>107497</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="11" name="지출지역 1"/>
@@ -30914,7 +31415,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -30968,8 +31469,8 @@
       <xdr:row>60</xdr:row>
       <xdr:rowOff>134710</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="12" name="결제방법 2"/>
@@ -30986,7 +31487,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -31040,8 +31541,8 @@
       <xdr:row>23</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:tsle="http://schemas.microsoft.com/office/drawing/2012/timeslicer" Requires="tsle">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:tsle="http://schemas.microsoft.com/office/drawing/2012/timeslicer">
+      <mc:Choice Requires="tsle">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="13" name="날짜 1"/>
@@ -31053,12 +31554,12 @@
           </xdr:xfrm>
           <a:graphic>
             <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2012/timeslicer">
-              <tsle:timeslicer xmlns:tsle="http://schemas.microsoft.com/office/drawing/2012/timeslicer" name="날짜 1"/>
+              <tsle:timeslicer name="날짜 1"/>
             </a:graphicData>
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -36028,227 +36529,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블2" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" errorCaption="!" showError="1" missingCaption="--" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" mergeItem="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="지출지역" colHeaderCaption="결제방법">
-  <location ref="A15:H22" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="8">
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="8">
-        <item x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="6"/>
-        <item x="0"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="6">
-        <item x="1"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="176" showAll="0"/>
-    <pivotField dataField="1" numFmtId="41" showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="7">
-        <item x="3"/>
-        <item x="0"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="3"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="6"/>
-  </colFields>
-  <colItems count="7">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="합계 : 지출금액" fld="5" baseField="0" baseItem="0" numFmtId="41"/>
-  </dataFields>
-  <formats count="30">
-    <format dxfId="45">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="44">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="43">
-      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="42">
-      <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
-    </format>
-    <format dxfId="41">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="40">
-      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="39">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="38">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="37">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="6" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="36">
-      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="35">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="34">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="33">
-      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="32">
-      <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
-    </format>
-    <format dxfId="31">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="30">
-      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="29">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="28">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="27">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="6" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="26">
-      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="25">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="24">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="23">
-      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="22">
-      <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
-    </format>
-    <format dxfId="21">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="20">
-      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="19">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="18">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="17">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="6" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="16">
-      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight17" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블1" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" errorCaption="Error" showError="1" missingCaption="//" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" mergeItem="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="지출항목" colHeaderCaption="결제방법">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" errorCaption="Error" showError="1" missingCaption="//" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" mergeItem="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="지출항목" colHeaderCaption="결제방법">
   <location ref="A3:H12" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField numFmtId="14" showAll="0">
@@ -36867,7 +37148,7 @@
     <dataField name="합계 : 지출금액" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="28">
-    <format dxfId="73">
+    <format dxfId="70">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -36876,7 +37157,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="72">
+    <format dxfId="69">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -36885,7 +37166,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="71">
+    <format dxfId="68">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -36894,7 +37175,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="70">
+    <format dxfId="67">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -36903,7 +37184,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="69">
+    <format dxfId="66">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -36912,7 +37193,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="68">
+    <format dxfId="65">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -36921,7 +37202,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="67">
+    <format dxfId="64">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -36930,7 +37211,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="66">
+    <format dxfId="63">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -36939,7 +37220,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="65">
+    <format dxfId="62">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -36948,7 +37229,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="64">
+    <format dxfId="61">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -36957,7 +37238,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="63">
+    <format dxfId="60">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -36966,7 +37247,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="62">
+    <format dxfId="59">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -36975,7 +37256,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="61">
+    <format dxfId="58">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -36984,7 +37265,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="60">
+    <format dxfId="57">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -36993,7 +37274,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="59">
+    <format dxfId="56">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -37002,7 +37283,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="58">
+    <format dxfId="55">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -37011,7 +37292,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="57">
+    <format dxfId="54">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -37020,7 +37301,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="56">
+    <format dxfId="53">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -37029,7 +37310,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="55">
+    <format dxfId="52">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -37038,7 +37319,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="54">
+    <format dxfId="51">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -37047,7 +37328,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="53">
+    <format dxfId="50">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -37056,7 +37337,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="52">
+    <format dxfId="49">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -37065,7 +37346,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="51">
+    <format dxfId="48">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -37074,7 +37355,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="50">
+    <format dxfId="47">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -37083,7 +37364,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="49">
+    <format dxfId="46">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -37092,7 +37373,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="48">
+    <format dxfId="45">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -37101,7 +37382,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="47">
+    <format dxfId="44">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -37110,7 +37391,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="46">
+    <format dxfId="43">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -37129,383 +37410,11 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블6" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="6" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
-  <location ref="A55:B62" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="11">
-    <pivotField numFmtId="14" showAll="0">
-      <items count="369">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item x="59"/>
-        <item x="60"/>
-        <item x="61"/>
-        <item x="62"/>
-        <item x="63"/>
-        <item x="64"/>
-        <item x="65"/>
-        <item x="66"/>
-        <item x="67"/>
-        <item x="68"/>
-        <item x="69"/>
-        <item x="70"/>
-        <item x="71"/>
-        <item x="72"/>
-        <item x="73"/>
-        <item x="74"/>
-        <item x="75"/>
-        <item x="76"/>
-        <item x="77"/>
-        <item x="78"/>
-        <item x="79"/>
-        <item x="80"/>
-        <item x="81"/>
-        <item x="82"/>
-        <item x="83"/>
-        <item x="84"/>
-        <item x="85"/>
-        <item x="86"/>
-        <item x="87"/>
-        <item x="88"/>
-        <item x="89"/>
-        <item x="90"/>
-        <item x="91"/>
-        <item x="92"/>
-        <item x="93"/>
-        <item x="94"/>
-        <item x="95"/>
-        <item x="96"/>
-        <item x="97"/>
-        <item x="98"/>
-        <item x="99"/>
-        <item x="100"/>
-        <item x="101"/>
-        <item x="102"/>
-        <item x="103"/>
-        <item x="104"/>
-        <item x="105"/>
-        <item x="106"/>
-        <item x="107"/>
-        <item x="108"/>
-        <item x="109"/>
-        <item x="110"/>
-        <item x="111"/>
-        <item x="112"/>
-        <item x="113"/>
-        <item x="114"/>
-        <item x="115"/>
-        <item x="116"/>
-        <item x="117"/>
-        <item x="118"/>
-        <item x="119"/>
-        <item x="120"/>
-        <item x="121"/>
-        <item x="122"/>
-        <item x="123"/>
-        <item x="124"/>
-        <item x="125"/>
-        <item x="126"/>
-        <item x="127"/>
-        <item x="128"/>
-        <item x="129"/>
-        <item x="130"/>
-        <item x="131"/>
-        <item x="132"/>
-        <item x="133"/>
-        <item x="134"/>
-        <item x="135"/>
-        <item x="136"/>
-        <item x="137"/>
-        <item x="138"/>
-        <item x="139"/>
-        <item x="140"/>
-        <item x="141"/>
-        <item x="142"/>
-        <item x="143"/>
-        <item x="144"/>
-        <item x="145"/>
-        <item x="146"/>
-        <item x="147"/>
-        <item x="148"/>
-        <item x="149"/>
-        <item x="150"/>
-        <item x="151"/>
-        <item x="152"/>
-        <item x="153"/>
-        <item x="154"/>
-        <item x="155"/>
-        <item x="156"/>
-        <item x="157"/>
-        <item x="158"/>
-        <item x="159"/>
-        <item x="160"/>
-        <item x="161"/>
-        <item x="162"/>
-        <item x="163"/>
-        <item x="164"/>
-        <item x="165"/>
-        <item x="166"/>
-        <item x="167"/>
-        <item x="168"/>
-        <item x="169"/>
-        <item x="170"/>
-        <item x="171"/>
-        <item x="172"/>
-        <item x="173"/>
-        <item x="174"/>
-        <item x="175"/>
-        <item x="176"/>
-        <item x="177"/>
-        <item x="178"/>
-        <item x="179"/>
-        <item x="180"/>
-        <item x="181"/>
-        <item x="182"/>
-        <item x="183"/>
-        <item x="184"/>
-        <item x="185"/>
-        <item x="186"/>
-        <item x="187"/>
-        <item x="188"/>
-        <item x="189"/>
-        <item x="190"/>
-        <item x="191"/>
-        <item x="192"/>
-        <item x="193"/>
-        <item x="194"/>
-        <item x="195"/>
-        <item x="196"/>
-        <item x="197"/>
-        <item x="198"/>
-        <item x="199"/>
-        <item x="200"/>
-        <item x="201"/>
-        <item x="202"/>
-        <item x="203"/>
-        <item x="204"/>
-        <item x="205"/>
-        <item x="206"/>
-        <item x="207"/>
-        <item x="208"/>
-        <item x="209"/>
-        <item x="210"/>
-        <item x="211"/>
-        <item x="212"/>
-        <item x="213"/>
-        <item x="214"/>
-        <item x="215"/>
-        <item x="216"/>
-        <item x="217"/>
-        <item x="218"/>
-        <item x="219"/>
-        <item x="220"/>
-        <item x="221"/>
-        <item x="222"/>
-        <item x="223"/>
-        <item x="224"/>
-        <item x="225"/>
-        <item x="226"/>
-        <item x="227"/>
-        <item x="228"/>
-        <item x="229"/>
-        <item x="230"/>
-        <item x="231"/>
-        <item x="232"/>
-        <item x="233"/>
-        <item x="234"/>
-        <item x="235"/>
-        <item x="236"/>
-        <item x="237"/>
-        <item x="238"/>
-        <item x="239"/>
-        <item x="240"/>
-        <item x="241"/>
-        <item x="242"/>
-        <item x="243"/>
-        <item x="244"/>
-        <item x="245"/>
-        <item x="246"/>
-        <item x="247"/>
-        <item x="248"/>
-        <item x="249"/>
-        <item x="250"/>
-        <item x="251"/>
-        <item x="252"/>
-        <item x="253"/>
-        <item x="254"/>
-        <item x="255"/>
-        <item x="256"/>
-        <item x="257"/>
-        <item x="258"/>
-        <item x="259"/>
-        <item x="260"/>
-        <item x="261"/>
-        <item x="262"/>
-        <item x="263"/>
-        <item x="264"/>
-        <item x="265"/>
-        <item x="266"/>
-        <item x="267"/>
-        <item x="268"/>
-        <item x="269"/>
-        <item x="270"/>
-        <item x="271"/>
-        <item x="272"/>
-        <item x="273"/>
-        <item x="274"/>
-        <item x="275"/>
-        <item x="276"/>
-        <item x="277"/>
-        <item x="278"/>
-        <item x="279"/>
-        <item x="280"/>
-        <item x="281"/>
-        <item x="282"/>
-        <item x="283"/>
-        <item x="284"/>
-        <item x="285"/>
-        <item x="286"/>
-        <item x="287"/>
-        <item x="288"/>
-        <item x="289"/>
-        <item x="290"/>
-        <item x="291"/>
-        <item x="292"/>
-        <item x="293"/>
-        <item x="294"/>
-        <item x="295"/>
-        <item x="296"/>
-        <item x="297"/>
-        <item x="298"/>
-        <item x="299"/>
-        <item x="300"/>
-        <item x="301"/>
-        <item x="302"/>
-        <item x="303"/>
-        <item x="304"/>
-        <item x="305"/>
-        <item x="306"/>
-        <item x="307"/>
-        <item x="308"/>
-        <item x="309"/>
-        <item x="310"/>
-        <item x="311"/>
-        <item x="312"/>
-        <item x="313"/>
-        <item x="314"/>
-        <item x="315"/>
-        <item x="316"/>
-        <item x="317"/>
-        <item x="318"/>
-        <item x="319"/>
-        <item x="320"/>
-        <item x="321"/>
-        <item x="322"/>
-        <item x="323"/>
-        <item x="324"/>
-        <item x="325"/>
-        <item x="326"/>
-        <item x="327"/>
-        <item x="328"/>
-        <item x="329"/>
-        <item x="330"/>
-        <item x="331"/>
-        <item x="332"/>
-        <item x="333"/>
-        <item x="334"/>
-        <item x="335"/>
-        <item x="336"/>
-        <item x="337"/>
-        <item x="338"/>
-        <item x="339"/>
-        <item x="340"/>
-        <item x="341"/>
-        <item x="342"/>
-        <item x="343"/>
-        <item x="344"/>
-        <item x="345"/>
-        <item x="346"/>
-        <item x="347"/>
-        <item x="348"/>
-        <item x="349"/>
-        <item x="350"/>
-        <item x="351"/>
-        <item x="352"/>
-        <item x="353"/>
-        <item x="354"/>
-        <item x="355"/>
-        <item x="356"/>
-        <item x="357"/>
-        <item x="358"/>
-        <item x="359"/>
-        <item x="360"/>
-        <item x="361"/>
-        <item x="362"/>
-        <item x="363"/>
-        <item x="364"/>
-        <item x="365"/>
-        <item x="366"/>
-        <item x="367"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" errorCaption="!" showError="1" missingCaption="--" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" mergeItem="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="지출지역" colHeaderCaption="결제방법">
+  <location ref="A15:H22" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="8">
+    <pivotField numFmtId="14" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0">
       <items count="8">
@@ -37519,19 +37428,19 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField showAll="0">
+    <pivotField axis="axisRow" showAll="0">
       <items count="6">
         <item x="1"/>
         <item x="3"/>
         <item x="2"/>
         <item x="0"/>
-        <item h="1" x="4"/>
+        <item x="4"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField numFmtId="176" showAll="0"/>
     <pivotField dataField="1" numFmtId="41" showAll="0"/>
-    <pivotField axis="axisRow" showAll="0" sortType="descending">
+    <pivotField axis="axisCol" showAll="0">
       <items count="7">
         <item x="3"/>
         <item x="0"/>
@@ -37541,51 +37450,39 @@
         <item x="2"/>
         <item t="default"/>
       </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
     </pivotField>
     <pivotField showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0">
-      <items count="14">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0" defaultSubtotal="0">
-      <items count="6">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-      </items>
-    </pivotField>
   </pivotFields>
   <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
     <field x="6"/>
-  </rowFields>
-  <rowItems count="7">
+  </colFields>
+  <colItems count="7">
+    <i>
+      <x/>
+    </i>
     <i>
       <x v="1"/>
     </i>
@@ -37599,86 +37496,132 @@
       <x v="4"/>
     </i>
     <i>
-      <x/>
-    </i>
-    <i>
       <x v="5"/>
     </i>
     <i t="grand">
       <x/>
     </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
   </colItems>
   <dataFields count="1">
     <dataField name="합계 : 지출금액" fld="5" baseField="0" baseItem="0" numFmtId="41"/>
   </dataFields>
-  <formats count="7">
-    <format dxfId="7">
+  <formats count="30">
+    <format dxfId="100">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="8">
+    <format dxfId="99">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="9">
-      <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    <format dxfId="98">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="10">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    <format dxfId="97">
+      <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="11">
+    <format dxfId="96">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="95">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="94">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="93">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="92">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="12">
+    <format dxfId="91">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="90">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="89">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="88">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="87">
+      <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="86">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="85">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="84">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="83">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="13">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    <format dxfId="82">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="6" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="81">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="80">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="79">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="78">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="77">
+      <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="76">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="75">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="74">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="73">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="72">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="6" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="71">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
-  <chartFormats count="2">
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="6" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <filters count="1">
-    <filter fld="0" type="dateBetween" evalOrder="-1" id="21" name="날짜">
-      <autoFilter ref="A1">
-        <filterColumn colId="0">
-          <customFilters and="1">
-            <customFilter operator="greaterThanOrEqual" val="43891"/>
-            <customFilter operator="lessThanOrEqual" val="43982"/>
-          </customFilters>
-        </filterColumn>
-      </autoFilter>
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{0605FD5F-26C8-4aeb-8148-2DB25E43C511}">
-          <x15:pivotFilter useWholeDay="1"/>
-        </ext>
-      </extLst>
-    </filter>
-  </filters>
+  <pivotTableStyleInfo name="PivotStyleLight17" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
@@ -37687,8 +37630,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블5" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="6" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블5" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="6" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A31:B36" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField numFmtId="14" showAll="0">
@@ -38190,14 +38133,14 @@
     <dataField name="합계 : 지출금액" fld="5" baseField="0" baseItem="0" numFmtId="41"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="14">
+    <format dxfId="35">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="15">
+    <format dxfId="34">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -38307,8 +38250,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블3" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="6" minRefreshableVersion="5" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="6" minRefreshableVersion="5" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A3:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField numFmtId="14" showAll="0">
@@ -38933,8 +38876,566 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블6" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="6" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+  <location ref="A55:B62" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="11">
+    <pivotField numFmtId="14" showAll="0">
+      <items count="369">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="125"/>
+        <item x="126"/>
+        <item x="127"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="134"/>
+        <item x="135"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item x="138"/>
+        <item x="139"/>
+        <item x="140"/>
+        <item x="141"/>
+        <item x="142"/>
+        <item x="143"/>
+        <item x="144"/>
+        <item x="145"/>
+        <item x="146"/>
+        <item x="147"/>
+        <item x="148"/>
+        <item x="149"/>
+        <item x="150"/>
+        <item x="151"/>
+        <item x="152"/>
+        <item x="153"/>
+        <item x="154"/>
+        <item x="155"/>
+        <item x="156"/>
+        <item x="157"/>
+        <item x="158"/>
+        <item x="159"/>
+        <item x="160"/>
+        <item x="161"/>
+        <item x="162"/>
+        <item x="163"/>
+        <item x="164"/>
+        <item x="165"/>
+        <item x="166"/>
+        <item x="167"/>
+        <item x="168"/>
+        <item x="169"/>
+        <item x="170"/>
+        <item x="171"/>
+        <item x="172"/>
+        <item x="173"/>
+        <item x="174"/>
+        <item x="175"/>
+        <item x="176"/>
+        <item x="177"/>
+        <item x="178"/>
+        <item x="179"/>
+        <item x="180"/>
+        <item x="181"/>
+        <item x="182"/>
+        <item x="183"/>
+        <item x="184"/>
+        <item x="185"/>
+        <item x="186"/>
+        <item x="187"/>
+        <item x="188"/>
+        <item x="189"/>
+        <item x="190"/>
+        <item x="191"/>
+        <item x="192"/>
+        <item x="193"/>
+        <item x="194"/>
+        <item x="195"/>
+        <item x="196"/>
+        <item x="197"/>
+        <item x="198"/>
+        <item x="199"/>
+        <item x="200"/>
+        <item x="201"/>
+        <item x="202"/>
+        <item x="203"/>
+        <item x="204"/>
+        <item x="205"/>
+        <item x="206"/>
+        <item x="207"/>
+        <item x="208"/>
+        <item x="209"/>
+        <item x="210"/>
+        <item x="211"/>
+        <item x="212"/>
+        <item x="213"/>
+        <item x="214"/>
+        <item x="215"/>
+        <item x="216"/>
+        <item x="217"/>
+        <item x="218"/>
+        <item x="219"/>
+        <item x="220"/>
+        <item x="221"/>
+        <item x="222"/>
+        <item x="223"/>
+        <item x="224"/>
+        <item x="225"/>
+        <item x="226"/>
+        <item x="227"/>
+        <item x="228"/>
+        <item x="229"/>
+        <item x="230"/>
+        <item x="231"/>
+        <item x="232"/>
+        <item x="233"/>
+        <item x="234"/>
+        <item x="235"/>
+        <item x="236"/>
+        <item x="237"/>
+        <item x="238"/>
+        <item x="239"/>
+        <item x="240"/>
+        <item x="241"/>
+        <item x="242"/>
+        <item x="243"/>
+        <item x="244"/>
+        <item x="245"/>
+        <item x="246"/>
+        <item x="247"/>
+        <item x="248"/>
+        <item x="249"/>
+        <item x="250"/>
+        <item x="251"/>
+        <item x="252"/>
+        <item x="253"/>
+        <item x="254"/>
+        <item x="255"/>
+        <item x="256"/>
+        <item x="257"/>
+        <item x="258"/>
+        <item x="259"/>
+        <item x="260"/>
+        <item x="261"/>
+        <item x="262"/>
+        <item x="263"/>
+        <item x="264"/>
+        <item x="265"/>
+        <item x="266"/>
+        <item x="267"/>
+        <item x="268"/>
+        <item x="269"/>
+        <item x="270"/>
+        <item x="271"/>
+        <item x="272"/>
+        <item x="273"/>
+        <item x="274"/>
+        <item x="275"/>
+        <item x="276"/>
+        <item x="277"/>
+        <item x="278"/>
+        <item x="279"/>
+        <item x="280"/>
+        <item x="281"/>
+        <item x="282"/>
+        <item x="283"/>
+        <item x="284"/>
+        <item x="285"/>
+        <item x="286"/>
+        <item x="287"/>
+        <item x="288"/>
+        <item x="289"/>
+        <item x="290"/>
+        <item x="291"/>
+        <item x="292"/>
+        <item x="293"/>
+        <item x="294"/>
+        <item x="295"/>
+        <item x="296"/>
+        <item x="297"/>
+        <item x="298"/>
+        <item x="299"/>
+        <item x="300"/>
+        <item x="301"/>
+        <item x="302"/>
+        <item x="303"/>
+        <item x="304"/>
+        <item x="305"/>
+        <item x="306"/>
+        <item x="307"/>
+        <item x="308"/>
+        <item x="309"/>
+        <item x="310"/>
+        <item x="311"/>
+        <item x="312"/>
+        <item x="313"/>
+        <item x="314"/>
+        <item x="315"/>
+        <item x="316"/>
+        <item x="317"/>
+        <item x="318"/>
+        <item x="319"/>
+        <item x="320"/>
+        <item x="321"/>
+        <item x="322"/>
+        <item x="323"/>
+        <item x="324"/>
+        <item x="325"/>
+        <item x="326"/>
+        <item x="327"/>
+        <item x="328"/>
+        <item x="329"/>
+        <item x="330"/>
+        <item x="331"/>
+        <item x="332"/>
+        <item x="333"/>
+        <item x="334"/>
+        <item x="335"/>
+        <item x="336"/>
+        <item x="337"/>
+        <item x="338"/>
+        <item x="339"/>
+        <item x="340"/>
+        <item x="341"/>
+        <item x="342"/>
+        <item x="343"/>
+        <item x="344"/>
+        <item x="345"/>
+        <item x="346"/>
+        <item x="347"/>
+        <item x="348"/>
+        <item x="349"/>
+        <item x="350"/>
+        <item x="351"/>
+        <item x="352"/>
+        <item x="353"/>
+        <item x="354"/>
+        <item x="355"/>
+        <item x="356"/>
+        <item x="357"/>
+        <item x="358"/>
+        <item x="359"/>
+        <item x="360"/>
+        <item x="361"/>
+        <item x="362"/>
+        <item x="363"/>
+        <item x="364"/>
+        <item x="365"/>
+        <item x="366"/>
+        <item x="367"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="8">
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="6"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item h="1" x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="176" showAll="0"/>
+    <pivotField dataField="1" numFmtId="41" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
+      <items count="7">
+        <item x="3"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0">
+      <items count="14">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0" defaultSubtotal="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="6"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="합계 : 지출금액" fld="5" baseField="0" baseItem="0" numFmtId="41"/>
+  </dataFields>
+  <formats count="7">
+    <format dxfId="42">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="41">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="40">
+      <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="39">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="38">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="6" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="37">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="36">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="2">
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <filters count="1">
+    <filter fld="0" type="dateBetween" evalOrder="-1" id="21" name="날짜">
+      <autoFilter ref="A1">
+        <filterColumn colId="0">
+          <customFilters and="1">
+            <customFilter operator="greaterThanOrEqual" val="43891"/>
+            <customFilter operator="lessThanOrEqual" val="43982"/>
+          </customFilters>
+        </filterColumn>
+      </autoFilter>
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{0605FD5F-26C8-4aeb-8148-2DB25E43C511}">
+          <x15:pivotFilter useWholeDay="1"/>
+        </ext>
+      </extLst>
+    </filter>
+  </filters>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" missingCaption="***" updatedVersion="6" minRefreshableVersion="5" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="지출항목" colHeaderCaption="지출지역">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" missingCaption="***" updatedVersion="6" minRefreshableVersion="5" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="지출항목" colHeaderCaption="지출지역">
   <location ref="A14:H20" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="8">
     <pivotField numFmtId="14" showAll="0">
@@ -39092,7 +39593,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="6" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="지출항목">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="6" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="지출항목">
   <location ref="A3:D9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="8">
     <pivotField numFmtId="14" showAll="0">
@@ -39243,7 +39744,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블4" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="6" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8" rowHeaderCaption="지출지역">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="6" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8" rowHeaderCaption="지출지역">
   <location ref="A12:C18" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField numFmtId="14" showAll="0">
@@ -39543,7 +40044,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="6" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8" rowHeaderCaption="지출항목">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="6" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8" rowHeaderCaption="지출항목">
   <location ref="A1:C9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField numFmtId="14" showAll="0">
@@ -40092,72 +40593,72 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="표10" displayName="표10" ref="A3:H42" headerRowDxfId="102" headerRowBorderDxfId="112" tableBorderDxfId="113" totalsRowBorderDxfId="111">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="표10" displayName="표10" ref="A3:H42" headerRowDxfId="188" headerRowBorderDxfId="187" tableBorderDxfId="186" totalsRowBorderDxfId="185">
   <autoFilter ref="A3:H42"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="날짜" totalsRowLabel="요약" dataDxfId="110" totalsRowDxfId="79"/>
-    <tableColumn id="2" name="세부내역" dataDxfId="109" totalsRowDxfId="80"/>
-    <tableColumn id="3" name="지출항목" dataDxfId="108" totalsRowDxfId="81"/>
-    <tableColumn id="4" name="지출지역" dataDxfId="107" totalsRowDxfId="82"/>
-    <tableColumn id="5" name="지출시간" dataDxfId="106" totalsRowDxfId="83"/>
-    <tableColumn id="6" name="지출금액" totalsRowFunction="sum" dataDxfId="105" totalsRowDxfId="84" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="7" name="결제방법" dataDxfId="104" totalsRowDxfId="85"/>
-    <tableColumn id="8" name="비고" dataDxfId="103" totalsRowDxfId="86"/>
+    <tableColumn id="1" name="날짜" totalsRowLabel="요약" dataDxfId="184" totalsRowDxfId="183"/>
+    <tableColumn id="2" name="세부내역" dataDxfId="182" totalsRowDxfId="181"/>
+    <tableColumn id="3" name="지출항목" dataDxfId="180" totalsRowDxfId="179"/>
+    <tableColumn id="4" name="지출지역" dataDxfId="178" totalsRowDxfId="177"/>
+    <tableColumn id="5" name="지출시간" dataDxfId="176" totalsRowDxfId="175"/>
+    <tableColumn id="6" name="지출금액" totalsRowFunction="sum" dataDxfId="174" totalsRowDxfId="173" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="7" name="결제방법" dataDxfId="172" totalsRowDxfId="171"/>
+    <tableColumn id="8" name="비고" dataDxfId="170" totalsRowDxfId="169"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="표46_13" displayName="표46_13" ref="L1:L8" totalsRowShown="0" headerRowDxfId="161" headerRowBorderDxfId="160" tableBorderDxfId="159" totalsRowBorderDxfId="158">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="표46_13" displayName="표46_13" ref="L1:L8" totalsRowShown="0" headerRowDxfId="121" headerRowBorderDxfId="120" tableBorderDxfId="119" totalsRowBorderDxfId="118">
   <autoFilter ref="L1:L8"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="지출지역" dataDxfId="157"/>
+    <tableColumn id="1" name="지출지역" dataDxfId="117"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="표47_14" displayName="표47_14" ref="N1:N7" totalsRowShown="0" headerRowDxfId="156" headerRowBorderDxfId="155" tableBorderDxfId="154" totalsRowBorderDxfId="153">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="표47_14" displayName="표47_14" ref="N1:N7" totalsRowShown="0" headerRowDxfId="116" headerRowBorderDxfId="115" tableBorderDxfId="114" totalsRowBorderDxfId="113">
   <autoFilter ref="N1:N7"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="결제방법" dataDxfId="152"/>
+    <tableColumn id="1" name="결제방법" dataDxfId="112"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="원본표" displayName="원본표" ref="A3:H46" totalsRowShown="0" headerRowDxfId="151" dataDxfId="150" tableBorderDxfId="149">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="원본표" displayName="원본표" ref="A3:H46" totalsRowShown="0" headerRowDxfId="111" dataDxfId="110" tableBorderDxfId="109">
   <autoFilter ref="A3:H46"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="날짜" dataDxfId="148"/>
-    <tableColumn id="2" name="세부내역" dataDxfId="147"/>
-    <tableColumn id="3" name="지출항목" dataDxfId="146"/>
-    <tableColumn id="4" name="지출지역" dataDxfId="145"/>
-    <tableColumn id="5" name="지출시간" dataDxfId="144"/>
-    <tableColumn id="6" name="지출금액" dataDxfId="143" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="7" name="결제방법" dataDxfId="142"/>
-    <tableColumn id="8" name="비고" dataDxfId="141"/>
+    <tableColumn id="1" name="날짜" dataDxfId="108"/>
+    <tableColumn id="2" name="세부내역" dataDxfId="107"/>
+    <tableColumn id="3" name="지출항목" dataDxfId="106"/>
+    <tableColumn id="4" name="지출지역" dataDxfId="105"/>
+    <tableColumn id="5" name="지출시간" dataDxfId="104"/>
+    <tableColumn id="6" name="지출금액" dataDxfId="103" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="7" name="결제방법" dataDxfId="102"/>
+    <tableColumn id="8" name="비고" dataDxfId="101"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight20" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="표15" displayName="표15" ref="A1:E12" totalsRowShown="0" headerRowDxfId="0" tableBorderDxfId="6" headerRowCellStyle="백분율">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="표15" displayName="표15" ref="A1:E12" totalsRowShown="0" headerRowDxfId="33" tableBorderDxfId="32" headerRowCellStyle="백분율">
   <autoFilter ref="A1:E12"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="품명" dataDxfId="5"/>
-    <tableColumn id="2" name="수량" dataDxfId="4"/>
-    <tableColumn id="3" name="할인율" dataDxfId="3" dataCellStyle="백분율">
+    <tableColumn id="1" name="품명" dataDxfId="31"/>
+    <tableColumn id="2" name="수량" dataDxfId="30"/>
+    <tableColumn id="3" name="할인율" dataDxfId="29" dataCellStyle="백분율">
       <calculatedColumnFormula>HLOOKUP(B2,$H$18:$M$19,2, 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="매출단가" dataDxfId="2" dataCellStyle="쉼표 [0]">
+    <tableColumn id="4" name="매출단가" dataDxfId="28" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>VLOOKUP(A2,$G$4:$H$13,2,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="매출금액" dataDxfId="1" dataCellStyle="쉼표 [0]">
+    <tableColumn id="5" name="매출금액" dataDxfId="27" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>D2*B2*(1-C2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -40166,133 +40667,133 @@
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="표1_8" displayName="표1_8" ref="A3:H41" totalsRowShown="0" headerRowDxfId="140" headerRowBorderDxfId="139" tableBorderDxfId="138" totalsRowBorderDxfId="137">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="표1_8" displayName="표1_8" ref="A3:H41" totalsRowShown="0" headerRowDxfId="26" headerRowBorderDxfId="25" tableBorderDxfId="24" totalsRowBorderDxfId="23">
   <autoFilter ref="A3:H41"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="날짜" dataDxfId="136"/>
-    <tableColumn id="2" name="세부내역" dataDxfId="135"/>
-    <tableColumn id="3" name="지출항목" dataDxfId="134"/>
-    <tableColumn id="4" name="지출지역" dataDxfId="133"/>
-    <tableColumn id="5" name="지출시간" dataDxfId="132"/>
-    <tableColumn id="6" name="지출금액" dataDxfId="131"/>
-    <tableColumn id="7" name="결제방법" dataDxfId="130"/>
-    <tableColumn id="8" name="비고" dataDxfId="129"/>
+    <tableColumn id="1" name="날짜" dataDxfId="22"/>
+    <tableColumn id="2" name="세부내역" dataDxfId="21"/>
+    <tableColumn id="3" name="지출항목" dataDxfId="20"/>
+    <tableColumn id="4" name="지출지역" dataDxfId="19"/>
+    <tableColumn id="5" name="지출시간" dataDxfId="18"/>
+    <tableColumn id="6" name="지출금액" dataDxfId="17"/>
+    <tableColumn id="7" name="결제방법" dataDxfId="16"/>
+    <tableColumn id="8" name="비고" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight20" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="45" name="표45" displayName="표45" ref="J1:J9" totalsRowShown="0" headerRowDxfId="128" headerRowBorderDxfId="127" tableBorderDxfId="126" totalsRowBorderDxfId="125">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="45" name="표45" displayName="표45" ref="J1:J9" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <autoFilter ref="J1:J9"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="지출항목" dataDxfId="124"/>
+    <tableColumn id="1" name="지출항목" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="46" name="표46" displayName="표46" ref="L1:L8" totalsRowShown="0" headerRowDxfId="123" headerRowBorderDxfId="122" tableBorderDxfId="121" totalsRowBorderDxfId="120">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="46" name="표46" displayName="표46" ref="L1:L8" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
   <autoFilter ref="L1:L8"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="지출지역" dataDxfId="119"/>
+    <tableColumn id="1" name="지출지역" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="47" name="표47" displayName="표47" ref="N1:N7" totalsRowShown="0" headerRowDxfId="118" headerRowBorderDxfId="117" tableBorderDxfId="116" totalsRowBorderDxfId="115">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="47" name="표47" displayName="표47" ref="N1:N7" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3" tableBorderDxfId="2" totalsRowBorderDxfId="1">
   <autoFilter ref="N1:N7"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="결제방법" dataDxfId="114"/>
+    <tableColumn id="1" name="결제방법" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="표11" displayName="표11" ref="J1:J9" totalsRowShown="0" headerRowDxfId="97" headerRowBorderDxfId="100" tableBorderDxfId="101" totalsRowBorderDxfId="99">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="표11" displayName="표11" ref="J1:J9" totalsRowShown="0" headerRowDxfId="168" headerRowBorderDxfId="167" tableBorderDxfId="166" totalsRowBorderDxfId="165">
   <autoFilter ref="J1:J9"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="지출항목" dataDxfId="98"/>
+    <tableColumn id="1" name="지출항목" dataDxfId="164"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="표12" displayName="표12" ref="L1:L8" totalsRowShown="0" headerRowDxfId="92" headerRowBorderDxfId="95" tableBorderDxfId="96" totalsRowBorderDxfId="94">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="표12" displayName="표12" ref="L1:L8" totalsRowShown="0" headerRowDxfId="163" headerRowBorderDxfId="162" tableBorderDxfId="161" totalsRowBorderDxfId="160">
   <autoFilter ref="L1:L8"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="지출지역" dataDxfId="93"/>
+    <tableColumn id="1" name="지출지역" dataDxfId="159"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="표14" displayName="표14" ref="N1:N7" totalsRowShown="0" headerRowDxfId="87" headerRowBorderDxfId="90" tableBorderDxfId="91" totalsRowBorderDxfId="89">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="표14" displayName="표14" ref="N1:N7" totalsRowShown="0" headerRowDxfId="158" headerRowBorderDxfId="157" tableBorderDxfId="156" totalsRowBorderDxfId="155">
   <autoFilter ref="N1:N7"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="결제방법" dataDxfId="88"/>
+    <tableColumn id="1" name="결제방법" dataDxfId="154"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1_82" displayName="표1_82" ref="A3:H41" totalsRowShown="0" headerRowDxfId="188" headerRowBorderDxfId="187" tableBorderDxfId="186" totalsRowBorderDxfId="185">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1_82" displayName="표1_82" ref="A3:H41" totalsRowShown="0" headerRowDxfId="153" headerRowBorderDxfId="152" tableBorderDxfId="151" totalsRowBorderDxfId="150">
   <tableColumns count="8">
-    <tableColumn id="1" name="날짜" dataDxfId="184"/>
-    <tableColumn id="2" name="세부내역" dataDxfId="183"/>
-    <tableColumn id="3" name="지출항목" dataDxfId="182"/>
-    <tableColumn id="4" name="지출지역" dataDxfId="181"/>
-    <tableColumn id="5" name="지출시간" dataDxfId="180"/>
-    <tableColumn id="6" name="지출금액" dataDxfId="179" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="7" name="결제방법" dataDxfId="178"/>
-    <tableColumn id="8" name="비고" dataDxfId="177"/>
+    <tableColumn id="1" name="날짜" dataDxfId="149"/>
+    <tableColumn id="2" name="세부내역" dataDxfId="148"/>
+    <tableColumn id="3" name="지출항목" dataDxfId="147"/>
+    <tableColumn id="4" name="지출지역" dataDxfId="146"/>
+    <tableColumn id="5" name="지출시간" dataDxfId="145"/>
+    <tableColumn id="6" name="지출금액" dataDxfId="144" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="7" name="결제방법" dataDxfId="143"/>
+    <tableColumn id="8" name="비고" dataDxfId="142"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight20" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="표45_3" displayName="표45_3" ref="J1:J9" totalsRowShown="0" headerRowDxfId="78" headerRowBorderDxfId="76" tableBorderDxfId="77" totalsRowBorderDxfId="75">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="표45_3" displayName="표45_3" ref="J1:J9" totalsRowShown="0" headerRowDxfId="141" headerRowBorderDxfId="140" tableBorderDxfId="139" totalsRowBorderDxfId="138">
   <autoFilter ref="J1:J9"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="지출항목" dataDxfId="74"/>
+    <tableColumn id="1" name="지출항목" dataDxfId="137"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="표46_4" displayName="표46_4" ref="L1:L8" totalsRowShown="0" headerRowDxfId="176" headerRowBorderDxfId="175" tableBorderDxfId="174" totalsRowBorderDxfId="173">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="표46_4" displayName="표46_4" ref="L1:L8" totalsRowShown="0" headerRowDxfId="136" headerRowBorderDxfId="135" tableBorderDxfId="134" totalsRowBorderDxfId="133">
   <autoFilter ref="L1:L8"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="지출지역" dataDxfId="172"/>
+    <tableColumn id="1" name="지출지역" dataDxfId="132"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="표47_5" displayName="표47_5" ref="N1:N7" totalsRowShown="0" headerRowDxfId="171" headerRowBorderDxfId="170" tableBorderDxfId="169" totalsRowBorderDxfId="168">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="표47_5" displayName="표47_5" ref="N1:N7" totalsRowShown="0" headerRowDxfId="131" headerRowBorderDxfId="130" tableBorderDxfId="129" totalsRowBorderDxfId="128">
   <autoFilter ref="N1:N7"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="결제방법" dataDxfId="167"/>
+    <tableColumn id="1" name="결제방법" dataDxfId="127"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="표45_12" displayName="표45_12" ref="J1:J9" totalsRowShown="0" headerRowDxfId="166" headerRowBorderDxfId="165" tableBorderDxfId="164" totalsRowBorderDxfId="163">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="표45_12" displayName="표45_12" ref="J1:J9" totalsRowShown="0" headerRowDxfId="126" headerRowBorderDxfId="125" tableBorderDxfId="124" totalsRowBorderDxfId="123">
   <autoFilter ref="J1:J9"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="지출항목" dataDxfId="162"/>
+    <tableColumn id="1" name="지출항목" dataDxfId="122"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -40623,16 +41124,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="170" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="126"/>
-      <c r="C1" s="126"/>
-      <c r="D1" s="126"/>
-      <c r="E1" s="126"/>
-      <c r="F1" s="126"/>
-      <c r="G1" s="126"/>
-      <c r="H1" s="126"/>
+      <c r="B1" s="170"/>
+      <c r="C1" s="170"/>
+      <c r="D1" s="170"/>
+      <c r="E1" s="170"/>
+      <c r="F1" s="170"/>
+      <c r="G1" s="170"/>
+      <c r="H1" s="170"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G2" s="120"/>
@@ -41543,10 +42044,10 @@
       <c r="K3" s="102" t="s">
         <v>272</v>
       </c>
-      <c r="L3" s="163" t="s">
+      <c r="L3" s="149" t="s">
         <v>306</v>
       </c>
-      <c r="M3" s="163" t="s">
+      <c r="M3" s="149" t="s">
         <v>307</v>
       </c>
     </row>
@@ -42149,10 +42650,10 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="164">
+      <c r="A30" s="150">
         <v>44427</v>
       </c>
-      <c r="B30" s="164">
+      <c r="B30" s="150">
         <v>43239</v>
       </c>
       <c r="C30">
@@ -42173,7 +42674,7 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I31" s="162"/>
+      <c r="I31" s="148"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -42207,7 +42708,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="126" t="s">
         <v>262</v>
       </c>
       <c r="B1" s="40" t="s">
@@ -42222,10 +42723,10 @@
       <c r="E1" s="123" t="s">
         <v>274</v>
       </c>
-      <c r="G1" s="128" t="s">
+      <c r="G1" s="172" t="s">
         <v>275</v>
       </c>
-      <c r="H1" s="128"/>
+      <c r="H1" s="172"/>
       <c r="I1" s="84"/>
       <c r="J1" s="84"/>
     </row>
@@ -42244,7 +42745,7 @@
         <f>VLOOKUP(A2,$G$4:$H$13,2,0)</f>
         <v>500000</v>
       </c>
-      <c r="E2" s="165">
+      <c r="E2" s="151">
         <f>D2*B2*(1-C2)</f>
         <v>4850000</v>
       </c>
@@ -42264,7 +42765,7 @@
         <f t="shared" ref="D3:D11" si="1">VLOOKUP(A3,$G$4:$H$13,2,0)</f>
         <v>25000</v>
       </c>
-      <c r="E3" s="165">
+      <c r="E3" s="151">
         <f t="shared" ref="E3:E11" si="2">D3*B3*(1-C3)</f>
         <v>123750</v>
       </c>
@@ -42290,7 +42791,7 @@
         <f t="shared" si="1"/>
         <v>35000</v>
       </c>
-      <c r="E4" s="165">
+      <c r="E4" s="151">
         <f t="shared" si="2"/>
         <v>848750</v>
       </c>
@@ -42316,7 +42817,7 @@
         <f t="shared" si="1"/>
         <v>150000</v>
       </c>
-      <c r="E5" s="165">
+      <c r="E5" s="151">
         <f t="shared" si="2"/>
         <v>8692500</v>
       </c>
@@ -42342,7 +42843,7 @@
         <f t="shared" si="1"/>
         <v>300000</v>
       </c>
-      <c r="E6" s="165">
+      <c r="E6" s="151">
         <f t="shared" si="2"/>
         <v>1188000</v>
       </c>
@@ -42368,7 +42869,7 @@
         <f t="shared" si="1"/>
         <v>50000</v>
       </c>
-      <c r="E7" s="165">
+      <c r="E7" s="151">
         <f t="shared" si="2"/>
         <v>2160000</v>
       </c>
@@ -42394,7 +42895,7 @@
         <f t="shared" si="1"/>
         <v>45000</v>
       </c>
-      <c r="E8" s="165">
+      <c r="E8" s="151">
         <f t="shared" si="2"/>
         <v>1571400</v>
       </c>
@@ -42420,7 +42921,7 @@
         <f t="shared" si="1"/>
         <v>95000</v>
       </c>
-      <c r="E9" s="165">
+      <c r="E9" s="151">
         <f t="shared" si="2"/>
         <v>9405000</v>
       </c>
@@ -42446,7 +42947,7 @@
         <f t="shared" si="1"/>
         <v>30000</v>
       </c>
-      <c r="E10" s="165">
+      <c r="E10" s="151">
         <f t="shared" si="2"/>
         <v>2346000</v>
       </c>
@@ -42458,21 +42959,21 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="166" t="s">
+      <c r="A11" s="152" t="s">
         <v>286</v>
       </c>
-      <c r="B11" s="167">
+      <c r="B11" s="153">
         <v>22</v>
       </c>
-      <c r="C11" s="168">
+      <c r="C11" s="154">
         <f t="shared" si="0"/>
         <v>0.03</v>
       </c>
-      <c r="D11" s="169">
+      <c r="D11" s="155">
         <f t="shared" si="1"/>
         <v>28000</v>
       </c>
-      <c r="E11" s="170">
+      <c r="E11" s="156">
         <f t="shared" si="2"/>
         <v>597520</v>
       </c>
@@ -42484,21 +42985,21 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="171" t="s">
+      <c r="A12" s="157" t="s">
         <v>308</v>
       </c>
-      <c r="B12" s="167">
+      <c r="B12" s="153">
         <v>3</v>
       </c>
-      <c r="C12" s="172">
+      <c r="C12" s="158">
         <f>HLOOKUP(B12,$H$18:$M$19,2, 1)</f>
         <v>0.01</v>
       </c>
-      <c r="D12" s="173">
+      <c r="D12" s="159">
         <f>VLOOKUP(A12,$G$4:$H$13,2,0)</f>
         <v>500000</v>
       </c>
-      <c r="E12" s="174">
+      <c r="E12" s="160">
         <f>D12*B12*(1-C12)</f>
         <v>1485000</v>
       </c>
@@ -42521,15 +43022,15 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="G16" s="128" t="s">
+      <c r="G16" s="172" t="s">
         <v>288</v>
       </c>
-      <c r="H16" s="128"/>
-      <c r="I16" s="128"/>
-      <c r="J16" s="128"/>
-      <c r="K16" s="128"/>
-      <c r="L16" s="128"/>
-      <c r="M16" s="128"/>
+      <c r="H16" s="172"/>
+      <c r="I16" s="172"/>
+      <c r="J16" s="172"/>
+      <c r="K16" s="172"/>
+      <c r="L16" s="172"/>
+      <c r="M16" s="172"/>
     </row>
     <row r="17" spans="7:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="18" spans="7:13" x14ac:dyDescent="0.3">
@@ -42635,12 +43136,12 @@
     </row>
     <row r="4" spans="1:20" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A4" s="62"/>
-      <c r="B4" s="133" t="s">
+      <c r="B4" s="177" t="s">
         <v>246</v>
       </c>
-      <c r="C4" s="133"/>
-      <c r="D4" s="133"/>
-      <c r="E4" s="133"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
       <c r="F4" s="63"/>
     </row>
     <row r="5" spans="1:20" ht="13.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -42692,14 +43193,14 @@
       <c r="B8" s="71" t="s">
         <v>250</v>
       </c>
-      <c r="C8" s="195">
+      <c r="C8" s="169">
         <f>VLOOKUP($C$2,인사기록!$A$4:$M$16,4,0)</f>
         <v>38447</v>
       </c>
       <c r="D8" s="72" t="s">
         <v>251</v>
       </c>
-      <c r="E8" s="134" t="str">
+      <c r="E8" s="178" t="str">
         <f ca="1">IF(C9="-",DATEDIF(C8,TODAY(), "y")&amp;"년"&amp;DATEDIF(C8,TODAY(), "ym")&amp;"개월 재직",DATEDIF(C8,C9, "y")&amp;"년"&amp;DATEDIF(C8,C9, "ym")&amp;"개월 재직")</f>
         <v>16년4개월 재직</v>
       </c>
@@ -42710,14 +43211,14 @@
       <c r="B9" s="73" t="s">
         <v>252</v>
       </c>
-      <c r="C9" s="195" t="str">
+      <c r="C9" s="169" t="str">
         <f>VLOOKUP($C$2,인사기록!$A$4:$M$16,5,0)</f>
         <v>-</v>
       </c>
       <c r="D9" s="74" t="s">
         <v>253</v>
       </c>
-      <c r="E9" s="135"/>
+      <c r="E9" s="179"/>
       <c r="F9" s="66"/>
     </row>
     <row r="10" spans="1:20" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -42725,15 +43226,15 @@
       <c r="B10" s="67" t="s">
         <v>194</v>
       </c>
-      <c r="C10" s="196" t="str">
+      <c r="C10" s="180" t="str">
         <f>VLOOKUP($C$2,인사기록!$A$4:$M$16,8,0)</f>
         <v>서울 충무로 2가 303</v>
       </c>
-      <c r="D10" s="197" t="str">
+      <c r="D10" s="181" t="str">
         <f>VLOOKUP($C$2,인사기록!$A$4:$M$16,5,0)</f>
         <v>-</v>
       </c>
-      <c r="E10" s="198" t="str">
+      <c r="E10" s="182" t="str">
         <f>VLOOKUP($C$2,인사기록!$A$4:$M$16,5,0)</f>
         <v>-</v>
       </c>
@@ -42741,33 +43242,33 @@
     </row>
     <row r="11" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A11" s="75"/>
-      <c r="B11" s="136" t="s">
+      <c r="B11" s="183" t="s">
         <v>254</v>
       </c>
-      <c r="C11" s="137"/>
-      <c r="D11" s="137"/>
-      <c r="E11" s="137"/>
+      <c r="C11" s="184"/>
+      <c r="D11" s="184"/>
+      <c r="E11" s="184"/>
       <c r="F11" s="76"/>
     </row>
     <row r="12" spans="1:20" ht="33.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="77"/>
-      <c r="B12" s="138" t="s">
+      <c r="B12" s="185" t="s">
         <v>255</v>
       </c>
-      <c r="C12" s="138"/>
-      <c r="D12" s="138"/>
-      <c r="E12" s="138"/>
+      <c r="C12" s="185"/>
+      <c r="D12" s="185"/>
+      <c r="E12" s="185"/>
       <c r="F12" s="78"/>
     </row>
     <row r="13" spans="1:20" ht="43.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="79"/>
-      <c r="B13" s="139">
+      <c r="B13" s="186">
         <f ca="1">TODAY()</f>
         <v>44427</v>
       </c>
-      <c r="C13" s="139"/>
-      <c r="D13" s="139"/>
-      <c r="E13" s="139"/>
+      <c r="C13" s="186"/>
+      <c r="D13" s="186"/>
+      <c r="E13" s="186"/>
       <c r="F13" s="80"/>
     </row>
     <row r="14" spans="1:20" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -42775,11 +43276,11 @@
       <c r="B14" s="81" t="s">
         <v>256</v>
       </c>
-      <c r="C14" s="129" t="s">
+      <c r="C14" s="173" t="s">
         <v>257</v>
       </c>
-      <c r="D14" s="129"/>
-      <c r="E14" s="129"/>
+      <c r="D14" s="173"/>
+      <c r="E14" s="173"/>
       <c r="F14" s="66"/>
     </row>
     <row r="15" spans="1:20" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -42787,11 +43288,11 @@
       <c r="B15" s="81" t="s">
         <v>258</v>
       </c>
-      <c r="C15" s="129" t="s">
+      <c r="C15" s="173" t="s">
         <v>259</v>
       </c>
-      <c r="D15" s="129"/>
-      <c r="E15" s="129"/>
+      <c r="D15" s="173"/>
+      <c r="E15" s="173"/>
       <c r="F15" s="66"/>
     </row>
     <row r="16" spans="1:20" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -42799,11 +43300,11 @@
       <c r="B16" s="81" t="s">
         <v>260</v>
       </c>
-      <c r="C16" s="129" t="s">
+      <c r="C16" s="173" t="s">
         <v>261</v>
       </c>
-      <c r="D16" s="129"/>
-      <c r="E16" s="129"/>
+      <c r="D16" s="173"/>
+      <c r="E16" s="173"/>
       <c r="F16" s="66"/>
     </row>
     <row r="17" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -42815,12 +43316,12 @@
       <c r="F17" s="66"/>
     </row>
     <row r="18" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="130"/>
-      <c r="B18" s="131"/>
-      <c r="C18" s="131"/>
-      <c r="D18" s="131"/>
-      <c r="E18" s="131"/>
-      <c r="F18" s="132"/>
+      <c r="A18" s="174"/>
+      <c r="B18" s="175"/>
+      <c r="C18" s="175"/>
+      <c r="D18" s="175"/>
+      <c r="E18" s="175"/>
+      <c r="F18" s="176"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -42868,161 +43369,161 @@
     <row r="3" spans="12:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="12:17" x14ac:dyDescent="0.3">
       <c r="L4" s="62"/>
-      <c r="M4" s="179"/>
-      <c r="N4" s="179"/>
-      <c r="O4" s="179"/>
-      <c r="P4" s="179"/>
+      <c r="M4" s="163"/>
+      <c r="N4" s="163"/>
+      <c r="O4" s="163"/>
+      <c r="P4" s="163"/>
       <c r="Q4" s="63"/>
     </row>
     <row r="5" spans="12:17" ht="38.25" x14ac:dyDescent="0.3">
       <c r="L5" s="64"/>
-      <c r="M5" s="189" t="s">
+      <c r="M5" s="188" t="s">
         <v>309</v>
       </c>
-      <c r="N5" s="190"/>
-      <c r="O5" s="190"/>
-      <c r="P5" s="191"/>
+      <c r="N5" s="189"/>
+      <c r="O5" s="189"/>
+      <c r="P5" s="190"/>
       <c r="Q5" s="66"/>
     </row>
     <row r="6" spans="12:17" x14ac:dyDescent="0.3">
       <c r="L6" s="64"/>
-      <c r="M6" s="146"/>
+      <c r="M6" s="132"/>
       <c r="N6" s="57"/>
       <c r="O6" s="57"/>
-      <c r="P6" s="147"/>
+      <c r="P6" s="133"/>
       <c r="Q6" s="66"/>
     </row>
     <row r="7" spans="12:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L7" s="64"/>
-      <c r="M7" s="177" t="s">
+      <c r="M7" s="162" t="s">
         <v>247</v>
       </c>
-      <c r="N7" s="175"/>
-      <c r="O7" s="177" t="s">
+      <c r="N7" s="161"/>
+      <c r="O7" s="162" t="s">
         <v>248</v>
       </c>
-      <c r="P7" s="175"/>
+      <c r="P7" s="161"/>
       <c r="Q7" s="66"/>
     </row>
     <row r="8" spans="12:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L8" s="64"/>
-      <c r="M8" s="177" t="s">
+      <c r="M8" s="162" t="s">
         <v>220</v>
       </c>
-      <c r="N8" s="175"/>
-      <c r="O8" s="177" t="s">
+      <c r="N8" s="161"/>
+      <c r="O8" s="162" t="s">
         <v>193</v>
       </c>
-      <c r="P8" s="175"/>
+      <c r="P8" s="161"/>
       <c r="Q8" s="66"/>
     </row>
     <row r="9" spans="12:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L9" s="64"/>
-      <c r="M9" s="177" t="s">
+      <c r="M9" s="162" t="s">
         <v>250</v>
       </c>
-      <c r="N9" s="175"/>
-      <c r="O9" s="177" t="s">
+      <c r="N9" s="161"/>
+      <c r="O9" s="162" t="s">
         <v>251</v>
       </c>
-      <c r="P9" s="175"/>
+      <c r="P9" s="161"/>
       <c r="Q9" s="66"/>
     </row>
     <row r="10" spans="12:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L10" s="64"/>
-      <c r="M10" s="177" t="s">
+      <c r="M10" s="162" t="s">
         <v>252</v>
       </c>
-      <c r="N10" s="175"/>
-      <c r="O10" s="177" t="s">
+      <c r="N10" s="161"/>
+      <c r="O10" s="162" t="s">
         <v>253</v>
       </c>
-      <c r="P10" s="175"/>
+      <c r="P10" s="161"/>
       <c r="Q10" s="66"/>
     </row>
     <row r="11" spans="12:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L11" s="64"/>
-      <c r="M11" s="177" t="s">
+      <c r="M11" s="162" t="s">
         <v>194</v>
       </c>
-      <c r="N11" s="178"/>
-      <c r="O11" s="178"/>
-      <c r="P11" s="178"/>
+      <c r="N11" s="191"/>
+      <c r="O11" s="191"/>
+      <c r="P11" s="191"/>
       <c r="Q11" s="66"/>
     </row>
     <row r="12" spans="12:17" x14ac:dyDescent="0.3">
       <c r="L12" s="64"/>
-      <c r="M12" s="146"/>
+      <c r="M12" s="132"/>
       <c r="N12" s="57"/>
       <c r="O12" s="57"/>
-      <c r="P12" s="147"/>
+      <c r="P12" s="133"/>
       <c r="Q12" s="66"/>
     </row>
     <row r="13" spans="12:17" x14ac:dyDescent="0.3">
       <c r="L13" s="64"/>
-      <c r="M13" s="183" t="s">
+      <c r="M13" s="192" t="s">
         <v>254</v>
       </c>
-      <c r="N13" s="138"/>
-      <c r="O13" s="138"/>
-      <c r="P13" s="184"/>
+      <c r="N13" s="185"/>
+      <c r="O13" s="185"/>
+      <c r="P13" s="187"/>
       <c r="Q13" s="66"/>
     </row>
     <row r="14" spans="12:17" x14ac:dyDescent="0.3">
       <c r="L14" s="64"/>
-      <c r="M14" s="185" t="s">
+      <c r="M14" s="193" t="s">
         <v>255</v>
       </c>
-      <c r="N14" s="176"/>
-      <c r="O14" s="176"/>
-      <c r="P14" s="186"/>
+      <c r="N14" s="194"/>
+      <c r="O14" s="194"/>
+      <c r="P14" s="195"/>
       <c r="Q14" s="66"/>
     </row>
     <row r="15" spans="12:17" x14ac:dyDescent="0.3">
       <c r="L15" s="64"/>
-      <c r="M15" s="187">
+      <c r="M15" s="196">
         <f ca="1">TODAY()</f>
         <v>44427</v>
       </c>
-      <c r="N15" s="138"/>
-      <c r="O15" s="138"/>
-      <c r="P15" s="184"/>
+      <c r="N15" s="185"/>
+      <c r="O15" s="185"/>
+      <c r="P15" s="187"/>
       <c r="Q15" s="66"/>
     </row>
     <row r="16" spans="12:17" x14ac:dyDescent="0.3">
       <c r="L16" s="64"/>
-      <c r="M16" s="188" t="s">
+      <c r="M16" s="167" t="s">
         <v>310</v>
       </c>
-      <c r="N16" s="138" t="s">
+      <c r="N16" s="185" t="s">
         <v>313</v>
       </c>
-      <c r="O16" s="138"/>
-      <c r="P16" s="184"/>
+      <c r="O16" s="185"/>
+      <c r="P16" s="187"/>
       <c r="Q16" s="66"/>
     </row>
     <row r="17" spans="12:17" x14ac:dyDescent="0.3">
       <c r="L17" s="64"/>
-      <c r="M17" s="188" t="s">
+      <c r="M17" s="167" t="s">
         <v>311</v>
       </c>
-      <c r="N17" s="138" t="s">
+      <c r="N17" s="185" t="s">
         <v>259</v>
       </c>
-      <c r="O17" s="138"/>
-      <c r="P17" s="184"/>
+      <c r="O17" s="185"/>
+      <c r="P17" s="187"/>
       <c r="Q17" s="66"/>
     </row>
     <row r="18" spans="12:17" x14ac:dyDescent="0.3">
       <c r="L18" s="64"/>
-      <c r="M18" s="192" t="s">
+      <c r="M18" s="168" t="s">
         <v>312</v>
       </c>
-      <c r="N18" s="193" t="s">
+      <c r="N18" s="197" t="s">
         <v>314</v>
       </c>
-      <c r="O18" s="193"/>
-      <c r="P18" s="194"/>
+      <c r="O18" s="197"/>
+      <c r="P18" s="198"/>
       <c r="Q18" s="66"/>
     </row>
     <row r="19" spans="12:17" x14ac:dyDescent="0.3">
@@ -43034,23 +43535,23 @@
       <c r="Q19" s="66"/>
     </row>
     <row r="20" spans="12:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L20" s="180"/>
-      <c r="M20" s="181"/>
-      <c r="N20" s="181"/>
-      <c r="O20" s="181"/>
-      <c r="P20" s="181"/>
-      <c r="Q20" s="182"/>
+      <c r="L20" s="164"/>
+      <c r="M20" s="165"/>
+      <c r="N20" s="165"/>
+      <c r="O20" s="165"/>
+      <c r="P20" s="165"/>
+      <c r="Q20" s="166"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="N17:P17"/>
     <mergeCell ref="N16:P16"/>
     <mergeCell ref="M5:P5"/>
     <mergeCell ref="N11:P11"/>
     <mergeCell ref="M13:P13"/>
     <mergeCell ref="M14:P14"/>
     <mergeCell ref="M15:P15"/>
-    <mergeCell ref="N18:P18"/>
-    <mergeCell ref="N17:P17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -43084,16 +43585,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="171" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
+      <c r="B1" s="171"/>
+      <c r="C1" s="171"/>
+      <c r="D1" s="171"/>
+      <c r="E1" s="171"/>
+      <c r="F1" s="171"/>
+      <c r="G1" s="171"/>
+      <c r="H1" s="171"/>
       <c r="J1" s="13" t="s">
         <v>0</v>
       </c>
@@ -44889,16 +45390,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="171" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
+      <c r="B1" s="171"/>
+      <c r="C1" s="171"/>
+      <c r="D1" s="171"/>
+      <c r="E1" s="171"/>
+      <c r="F1" s="171"/>
+      <c r="G1" s="171"/>
+      <c r="H1" s="171"/>
       <c r="J1" s="13" t="s">
         <v>0</v>
       </c>
@@ -44977,7 +45478,7 @@
       <c r="G4" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="H4" s="141"/>
+      <c r="H4" s="127"/>
       <c r="J4" s="12" t="s">
         <v>8</v>
       </c>
@@ -45010,7 +45511,7 @@
       <c r="G5" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="H5" s="141"/>
+      <c r="H5" s="127"/>
       <c r="J5" s="12" t="s">
         <v>10</v>
       </c>
@@ -45043,7 +45544,7 @@
       <c r="G6" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="H6" s="141"/>
+      <c r="H6" s="127"/>
       <c r="J6" s="12" t="s">
         <v>9</v>
       </c>
@@ -45076,7 +45577,7 @@
       <c r="G7" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="141"/>
+      <c r="H7" s="127"/>
       <c r="J7" s="12" t="s">
         <v>11</v>
       </c>
@@ -45109,7 +45610,7 @@
       <c r="G8" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="141"/>
+      <c r="H8" s="127"/>
       <c r="J8" s="12" t="s">
         <v>12</v>
       </c>
@@ -45139,7 +45640,7 @@
       <c r="G9" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="H9" s="141"/>
+      <c r="H9" s="127"/>
       <c r="J9" s="10" t="s">
         <v>40</v>
       </c>
@@ -45166,7 +45667,7 @@
       <c r="G10" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="H10" s="141"/>
+      <c r="H10" s="127"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="15">
@@ -45190,7 +45691,7 @@
       <c r="G11" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="H11" s="141"/>
+      <c r="H11" s="127"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="15">
@@ -45214,7 +45715,7 @@
       <c r="G12" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="H12" s="141"/>
+      <c r="H12" s="127"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="15">
@@ -45238,7 +45739,7 @@
       <c r="G13" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="141"/>
+      <c r="H13" s="127"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="15">
@@ -45262,7 +45763,7 @@
       <c r="G14" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="H14" s="141"/>
+      <c r="H14" s="127"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="15">
@@ -45286,7 +45787,7 @@
       <c r="G15" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="H15" s="141"/>
+      <c r="H15" s="127"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="15">
@@ -45310,7 +45811,7 @@
       <c r="G16" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="H16" s="141"/>
+      <c r="H16" s="127"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="15">
@@ -45334,7 +45835,7 @@
       <c r="G17" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="H17" s="141"/>
+      <c r="H17" s="127"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="15">
@@ -45358,7 +45859,7 @@
       <c r="G18" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="H18" s="141"/>
+      <c r="H18" s="127"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="15">
@@ -45382,7 +45883,7 @@
       <c r="G19" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="H19" s="141"/>
+      <c r="H19" s="127"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="15">
@@ -45406,7 +45907,7 @@
       <c r="G20" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="H20" s="141"/>
+      <c r="H20" s="127"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="15">
@@ -45430,7 +45931,7 @@
       <c r="G21" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H21" s="141"/>
+      <c r="H21" s="127"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="15">
@@ -45454,7 +45955,7 @@
       <c r="G22" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H22" s="141"/>
+      <c r="H22" s="127"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="15">
@@ -45478,7 +45979,7 @@
       <c r="G23" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H23" s="141"/>
+      <c r="H23" s="127"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="15">
@@ -45502,7 +46003,7 @@
       <c r="G24" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="H24" s="141"/>
+      <c r="H24" s="127"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="15">
@@ -45526,7 +46027,7 @@
       <c r="G25" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H25" s="141"/>
+      <c r="H25" s="127"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="15">
@@ -45550,7 +46051,7 @@
       <c r="G26" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H26" s="141"/>
+      <c r="H26" s="127"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="15">
@@ -45574,7 +46075,7 @@
       <c r="G27" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H27" s="141"/>
+      <c r="H27" s="127"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="15">
@@ -45598,7 +46099,7 @@
       <c r="G28" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H28" s="141"/>
+      <c r="H28" s="127"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="15">
@@ -45622,7 +46123,7 @@
       <c r="G29" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="H29" s="141"/>
+      <c r="H29" s="127"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="15">
@@ -45646,7 +46147,7 @@
       <c r="G30" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="H30" s="141"/>
+      <c r="H30" s="127"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="15">
@@ -45670,7 +46171,7 @@
       <c r="G31" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="H31" s="141"/>
+      <c r="H31" s="127"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="15">
@@ -45694,7 +46195,7 @@
       <c r="G32" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="H32" s="141"/>
+      <c r="H32" s="127"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="15">
@@ -45718,7 +46219,7 @@
       <c r="G33" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="H33" s="141"/>
+      <c r="H33" s="127"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="15">
@@ -45742,7 +46243,7 @@
       <c r="G34" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H34" s="141"/>
+      <c r="H34" s="127"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="15">
@@ -45766,7 +46267,7 @@
       <c r="G35" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H35" s="141"/>
+      <c r="H35" s="127"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="15">
@@ -45790,34 +46291,34 @@
       <c r="G36" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H36" s="141"/>
+      <c r="H36" s="127"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="142">
+      <c r="A37" s="128">
         <v>43943</v>
       </c>
-      <c r="B37" s="143" t="s">
+      <c r="B37" s="129" t="s">
         <v>45</v>
       </c>
-      <c r="C37" s="143" t="s">
+      <c r="C37" s="129" t="s">
         <v>40</v>
       </c>
-      <c r="D37" s="143" t="s">
+      <c r="D37" s="129" t="s">
         <v>15</v>
       </c>
-      <c r="E37" s="144">
+      <c r="E37" s="130">
         <v>0.59722222222222221</v>
       </c>
-      <c r="F37" s="145">
+      <c r="F37" s="131">
         <v>500000</v>
       </c>
-      <c r="G37" s="143" t="s">
+      <c r="G37" s="129" t="s">
         <v>18</v>
       </c>
       <c r="H37" s="44"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="150">
+      <c r="A38" s="136">
         <v>43904</v>
       </c>
       <c r="B38" s="14" t="s">
@@ -45832,7 +46333,7 @@
       <c r="E38" s="16">
         <v>0.85416666666666663</v>
       </c>
-      <c r="F38" s="149">
+      <c r="F38" s="135">
         <v>250000</v>
       </c>
       <c r="G38" s="14" t="s">
@@ -45841,7 +46342,7 @@
       <c r="H38" s="18"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="150">
+      <c r="A39" s="136">
         <v>43905</v>
       </c>
       <c r="B39" s="14" t="s">
@@ -45856,7 +46357,7 @@
       <c r="E39" s="16">
         <v>0.66666666666666663</v>
       </c>
-      <c r="F39" s="149">
+      <c r="F39" s="135">
         <v>25000</v>
       </c>
       <c r="G39" s="14" t="s">
@@ -45865,7 +46366,7 @@
       <c r="H39" s="18"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="150">
+      <c r="A40" s="136">
         <v>43905</v>
       </c>
       <c r="B40" s="14" t="s">
@@ -45880,7 +46381,7 @@
       <c r="E40" s="16">
         <v>0.88888888888888884</v>
       </c>
-      <c r="F40" s="149">
+      <c r="F40" s="135">
         <v>15000</v>
       </c>
       <c r="G40" s="14" t="s">
@@ -45889,7 +46390,7 @@
       <c r="H40" s="18"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="150">
+      <c r="A41" s="136">
         <v>43906</v>
       </c>
       <c r="B41" s="14" t="s">
@@ -45904,7 +46405,7 @@
       <c r="E41" s="16">
         <v>0.79166666666666663</v>
       </c>
-      <c r="F41" s="149">
+      <c r="F41" s="135">
         <v>20000</v>
       </c>
       <c r="G41" s="14" t="s">
@@ -45928,7 +46429,7 @@
       <c r="E42" s="21">
         <v>0.59722222222222221</v>
       </c>
-      <c r="F42" s="151">
+      <c r="F42" s="137">
         <v>500000</v>
       </c>
       <c r="G42" s="20" t="s">
@@ -45967,8 +46468,8 @@
   </sheetPr>
   <dimension ref="A1:AE51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="Z9" sqref="Z9"/>
+    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -45989,16 +46490,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="35.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="171" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
+      <c r="B1" s="171"/>
+      <c r="C1" s="171"/>
+      <c r="D1" s="171"/>
+      <c r="E1" s="171"/>
+      <c r="F1" s="171"/>
+      <c r="G1" s="171"/>
+      <c r="H1" s="171"/>
       <c r="J1" s="13" t="s">
         <v>0</v>
       </c>
@@ -46177,19 +46678,19 @@
       <c r="Q6" s="31"/>
       <c r="R6" s="31"/>
       <c r="S6" s="32"/>
-      <c r="X6" s="152" t="s">
+      <c r="X6" s="138" t="s">
         <v>48</v>
       </c>
-      <c r="Y6" s="153" t="s">
+      <c r="Y6" s="139" t="s">
         <v>0</v>
       </c>
-      <c r="Z6" s="153" t="s">
+      <c r="Z6" s="139" t="s">
         <v>1</v>
       </c>
-      <c r="AA6" s="153" t="s">
+      <c r="AA6" s="139" t="s">
         <v>3</v>
       </c>
-      <c r="AB6" s="153" t="s">
+      <c r="AB6" s="139" t="s">
         <v>4</v>
       </c>
     </row>
@@ -47978,19 +48479,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="152" t="s">
+      <c r="A1" s="138" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="153" t="s">
+      <c r="B1" s="139" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="153" t="s">
+      <c r="C1" s="139" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="153" t="s">
+      <c r="D1" s="139" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="153" t="s">
+      <c r="E1" s="139" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="6" t="s">
@@ -48130,16 +48631,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="42.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="171" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
+      <c r="B1" s="171"/>
+      <c r="C1" s="171"/>
+      <c r="D1" s="171"/>
+      <c r="E1" s="171"/>
+      <c r="F1" s="171"/>
+      <c r="G1" s="171"/>
+      <c r="H1" s="171"/>
       <c r="J1" s="13" t="s">
         <v>0</v>
       </c>
@@ -49358,10 +49859,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="155" t="s">
+      <c r="A3" s="141" t="s">
         <v>296</v>
       </c>
-      <c r="B3" s="155" t="s">
+      <c r="B3" s="141" t="s">
         <v>169</v>
       </c>
       <c r="C3" s="110"/>
@@ -49372,28 +49873,28 @@
       <c r="H3" s="110"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="155" t="s">
+      <c r="A4" s="141" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="156" t="s">
+      <c r="B4" s="142" t="s">
         <v>298</v>
       </c>
-      <c r="C4" s="156" t="s">
+      <c r="C4" s="142" t="s">
         <v>299</v>
       </c>
-      <c r="D4" s="156" t="s">
+      <c r="D4" s="142" t="s">
         <v>301</v>
       </c>
-      <c r="E4" s="156" t="s">
+      <c r="E4" s="142" t="s">
         <v>300</v>
       </c>
-      <c r="F4" s="156" t="s">
+      <c r="F4" s="142" t="s">
         <v>302</v>
       </c>
-      <c r="G4" s="156" t="s">
+      <c r="G4" s="142" t="s">
         <v>297</v>
       </c>
-      <c r="H4" s="156" t="s">
+      <c r="H4" s="142" t="s">
         <v>179</v>
       </c>
     </row>
@@ -49401,25 +49902,25 @@
       <c r="A5" s="50" t="s">
         <v>181</v>
       </c>
-      <c r="B5" s="154" t="s">
+      <c r="B5" s="140" t="s">
         <v>303</v>
       </c>
-      <c r="C5" s="154" t="s">
+      <c r="C5" s="140" t="s">
         <v>303</v>
       </c>
-      <c r="D5" s="154" t="s">
+      <c r="D5" s="140" t="s">
         <v>303</v>
       </c>
-      <c r="E5" s="154" t="s">
+      <c r="E5" s="140" t="s">
         <v>303</v>
       </c>
-      <c r="F5" s="154" t="s">
+      <c r="F5" s="140" t="s">
         <v>303</v>
       </c>
-      <c r="G5" s="154">
+      <c r="G5" s="140">
         <v>400000</v>
       </c>
-      <c r="H5" s="154">
+      <c r="H5" s="140">
         <v>400000</v>
       </c>
     </row>
@@ -49427,25 +49928,25 @@
       <c r="A6" s="50" t="s">
         <v>175</v>
       </c>
-      <c r="B6" s="154">
+      <c r="B6" s="140">
         <v>300000</v>
       </c>
-      <c r="C6" s="154">
+      <c r="C6" s="140">
         <v>55000</v>
       </c>
-      <c r="D6" s="154" t="s">
+      <c r="D6" s="140" t="s">
         <v>303</v>
       </c>
-      <c r="E6" s="154">
+      <c r="E6" s="140">
         <v>177000</v>
       </c>
-      <c r="F6" s="154" t="s">
+      <c r="F6" s="140" t="s">
         <v>303</v>
       </c>
-      <c r="G6" s="154" t="s">
+      <c r="G6" s="140" t="s">
         <v>303</v>
       </c>
-      <c r="H6" s="154">
+      <c r="H6" s="140">
         <v>532000</v>
       </c>
     </row>
@@ -49453,25 +49954,25 @@
       <c r="A7" s="50" t="s">
         <v>182</v>
       </c>
-      <c r="B7" s="154" t="s">
+      <c r="B7" s="140" t="s">
         <v>303</v>
       </c>
-      <c r="C7" s="154" t="s">
+      <c r="C7" s="140" t="s">
         <v>303</v>
       </c>
-      <c r="D7" s="154" t="s">
+      <c r="D7" s="140" t="s">
         <v>303</v>
       </c>
-      <c r="E7" s="154">
+      <c r="E7" s="140">
         <v>338000</v>
       </c>
-      <c r="F7" s="154" t="s">
+      <c r="F7" s="140" t="s">
         <v>303</v>
       </c>
-      <c r="G7" s="154">
+      <c r="G7" s="140">
         <v>80000</v>
       </c>
-      <c r="H7" s="154">
+      <c r="H7" s="140">
         <v>418000</v>
       </c>
     </row>
@@ -49479,25 +49980,25 @@
       <c r="A8" s="50" t="s">
         <v>174</v>
       </c>
-      <c r="B8" s="154" t="s">
+      <c r="B8" s="140" t="s">
         <v>303</v>
       </c>
-      <c r="C8" s="154">
+      <c r="C8" s="140">
         <v>1500000</v>
       </c>
-      <c r="D8" s="154">
+      <c r="D8" s="140">
         <v>600000</v>
       </c>
-      <c r="E8" s="154" t="s">
+      <c r="E8" s="140" t="s">
         <v>303</v>
       </c>
-      <c r="F8" s="154">
+      <c r="F8" s="140">
         <v>500000</v>
       </c>
-      <c r="G8" s="154" t="s">
+      <c r="G8" s="140" t="s">
         <v>303</v>
       </c>
-      <c r="H8" s="154">
+      <c r="H8" s="140">
         <v>2600000</v>
       </c>
     </row>
@@ -49505,25 +50006,25 @@
       <c r="A9" s="50" t="s">
         <v>178</v>
       </c>
-      <c r="B9" s="154">
+      <c r="B9" s="140">
         <v>40000</v>
       </c>
-      <c r="C9" s="154">
+      <c r="C9" s="140">
         <v>55000</v>
       </c>
-      <c r="D9" s="154" t="s">
+      <c r="D9" s="140" t="s">
         <v>303</v>
       </c>
-      <c r="E9" s="154" t="s">
+      <c r="E9" s="140" t="s">
         <v>303</v>
       </c>
-      <c r="F9" s="154">
+      <c r="F9" s="140">
         <v>80000</v>
       </c>
-      <c r="G9" s="154" t="s">
+      <c r="G9" s="140" t="s">
         <v>303</v>
       </c>
-      <c r="H9" s="154">
+      <c r="H9" s="140">
         <v>175000</v>
       </c>
     </row>
@@ -49531,25 +50032,25 @@
       <c r="A10" s="50" t="s">
         <v>176</v>
       </c>
-      <c r="B10" s="154" t="s">
+      <c r="B10" s="140" t="s">
         <v>303</v>
       </c>
-      <c r="C10" s="154">
+      <c r="C10" s="140">
         <v>80000</v>
       </c>
-      <c r="D10" s="154">
+      <c r="D10" s="140">
         <v>165000</v>
       </c>
-      <c r="E10" s="154">
+      <c r="E10" s="140">
         <v>20000</v>
       </c>
-      <c r="F10" s="154" t="s">
+      <c r="F10" s="140" t="s">
         <v>303</v>
       </c>
-      <c r="G10" s="154">
+      <c r="G10" s="140">
         <v>37000</v>
       </c>
-      <c r="H10" s="154">
+      <c r="H10" s="140">
         <v>302000</v>
       </c>
     </row>
@@ -49557,25 +50058,25 @@
       <c r="A11" s="50" t="s">
         <v>177</v>
       </c>
-      <c r="B11" s="154" t="s">
+      <c r="B11" s="140" t="s">
         <v>303</v>
       </c>
-      <c r="C11" s="154">
+      <c r="C11" s="140">
         <v>160000</v>
       </c>
-      <c r="D11" s="154" t="s">
+      <c r="D11" s="140" t="s">
         <v>303</v>
       </c>
-      <c r="E11" s="154">
+      <c r="E11" s="140">
         <v>50000</v>
       </c>
-      <c r="F11" s="154" t="s">
+      <c r="F11" s="140" t="s">
         <v>303</v>
       </c>
-      <c r="G11" s="154" t="s">
+      <c r="G11" s="140" t="s">
         <v>303</v>
       </c>
-      <c r="H11" s="154">
+      <c r="H11" s="140">
         <v>210000</v>
       </c>
     </row>
@@ -49606,198 +50107,198 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="157" t="s">
+      <c r="A15" s="143" t="s">
         <v>296</v>
       </c>
-      <c r="B15" s="157" t="s">
+      <c r="B15" s="143" t="s">
         <v>169</v>
       </c>
-      <c r="C15" s="158"/>
-      <c r="D15" s="158"/>
-      <c r="E15" s="158"/>
-      <c r="F15" s="158"/>
-      <c r="G15" s="158"/>
-      <c r="H15" s="158"/>
+      <c r="C15" s="144"/>
+      <c r="D15" s="144"/>
+      <c r="E15" s="144"/>
+      <c r="F15" s="144"/>
+      <c r="G15" s="144"/>
+      <c r="H15" s="144"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="157" t="s">
+      <c r="A16" s="143" t="s">
         <v>51</v>
       </c>
-      <c r="B16" s="159" t="s">
+      <c r="B16" s="145" t="s">
         <v>298</v>
       </c>
-      <c r="C16" s="159" t="s">
+      <c r="C16" s="145" t="s">
         <v>299</v>
       </c>
-      <c r="D16" s="159" t="s">
+      <c r="D16" s="145" t="s">
         <v>301</v>
       </c>
-      <c r="E16" s="159" t="s">
+      <c r="E16" s="145" t="s">
         <v>300</v>
       </c>
-      <c r="F16" s="159" t="s">
+      <c r="F16" s="145" t="s">
         <v>302</v>
       </c>
-      <c r="G16" s="159" t="s">
+      <c r="G16" s="145" t="s">
         <v>297</v>
       </c>
-      <c r="H16" s="159" t="s">
+      <c r="H16" s="145" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="158" t="s">
+      <c r="A17" s="144" t="s">
         <v>183</v>
       </c>
-      <c r="B17" s="158">
+      <c r="B17" s="144">
         <v>300000</v>
       </c>
-      <c r="C17" s="158">
+      <c r="C17" s="144">
         <v>130000</v>
       </c>
-      <c r="D17" s="158" t="s">
+      <c r="D17" s="144" t="s">
         <v>304</v>
       </c>
-      <c r="E17" s="158">
+      <c r="E17" s="144">
         <v>350000</v>
       </c>
-      <c r="F17" s="158">
+      <c r="F17" s="144">
         <v>500000</v>
       </c>
-      <c r="G17" s="158" t="s">
+      <c r="G17" s="144" t="s">
         <v>304</v>
       </c>
-      <c r="H17" s="158">
+      <c r="H17" s="144">
         <v>1280000</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="158" t="s">
+      <c r="A18" s="144" t="s">
         <v>185</v>
       </c>
-      <c r="B18" s="158" t="s">
+      <c r="B18" s="144" t="s">
         <v>304</v>
       </c>
-      <c r="C18" s="158">
+      <c r="C18" s="144">
         <v>50000</v>
       </c>
-      <c r="D18" s="158" t="s">
+      <c r="D18" s="144" t="s">
         <v>304</v>
       </c>
-      <c r="E18" s="158">
+      <c r="E18" s="144">
         <v>47000</v>
       </c>
-      <c r="F18" s="158" t="s">
+      <c r="F18" s="144" t="s">
         <v>304</v>
       </c>
-      <c r="G18" s="158" t="s">
+      <c r="G18" s="144" t="s">
         <v>304</v>
       </c>
-      <c r="H18" s="158">
+      <c r="H18" s="144">
         <v>97000</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="158" t="s">
+      <c r="A19" s="144" t="s">
         <v>186</v>
       </c>
-      <c r="B19" s="158" t="s">
+      <c r="B19" s="144" t="s">
         <v>304</v>
       </c>
-      <c r="C19" s="158">
+      <c r="C19" s="144">
         <v>1060000</v>
       </c>
-      <c r="D19" s="158">
+      <c r="D19" s="144">
         <v>600000</v>
       </c>
-      <c r="E19" s="158" t="s">
+      <c r="E19" s="144" t="s">
         <v>304</v>
       </c>
-      <c r="F19" s="158" t="s">
+      <c r="F19" s="144" t="s">
         <v>304</v>
       </c>
-      <c r="G19" s="158">
+      <c r="G19" s="144">
         <v>200000</v>
       </c>
-      <c r="H19" s="158">
+      <c r="H19" s="144">
         <v>1860000</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="158" t="s">
+      <c r="A20" s="144" t="s">
         <v>187</v>
       </c>
-      <c r="B20" s="158">
+      <c r="B20" s="144">
         <v>40000</v>
       </c>
-      <c r="C20" s="158">
+      <c r="C20" s="144">
         <v>110000</v>
       </c>
-      <c r="D20" s="158" t="s">
+      <c r="D20" s="144" t="s">
         <v>304</v>
       </c>
-      <c r="E20" s="158">
+      <c r="E20" s="144">
         <v>188000</v>
       </c>
-      <c r="F20" s="158">
+      <c r="F20" s="144">
         <v>80000</v>
       </c>
-      <c r="G20" s="158">
+      <c r="G20" s="144">
         <v>80000</v>
       </c>
-      <c r="H20" s="158">
+      <c r="H20" s="144">
         <v>498000</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="158" t="s">
+      <c r="A21" s="144" t="s">
         <v>188</v>
       </c>
-      <c r="B21" s="158" t="s">
+      <c r="B21" s="144" t="s">
         <v>304</v>
       </c>
-      <c r="C21" s="158" t="s">
+      <c r="C21" s="144" t="s">
         <v>304</v>
       </c>
-      <c r="D21" s="158">
+      <c r="D21" s="144">
         <v>65000</v>
       </c>
-      <c r="E21" s="158" t="s">
+      <c r="E21" s="144" t="s">
         <v>304</v>
       </c>
-      <c r="F21" s="158" t="s">
+      <c r="F21" s="144" t="s">
         <v>304</v>
       </c>
-      <c r="G21" s="158">
+      <c r="G21" s="144">
         <v>137000</v>
       </c>
-      <c r="H21" s="158">
+      <c r="H21" s="144">
         <v>202000</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="158" t="s">
+      <c r="A22" s="144" t="s">
         <v>179</v>
       </c>
-      <c r="B22" s="158">
+      <c r="B22" s="144">
         <v>340000</v>
       </c>
-      <c r="C22" s="158">
+      <c r="C22" s="144">
         <v>1350000</v>
       </c>
-      <c r="D22" s="158">
+      <c r="D22" s="144">
         <v>665000</v>
       </c>
-      <c r="E22" s="158">
+      <c r="E22" s="144">
         <v>585000</v>
       </c>
-      <c r="F22" s="158">
+      <c r="F22" s="144">
         <v>580000</v>
       </c>
-      <c r="G22" s="158">
+      <c r="G22" s="144">
         <v>417000</v>
       </c>
-      <c r="H22" s="158">
+      <c r="H22" s="144">
         <v>3937000</v>
       </c>
     </row>
@@ -49898,7 +50399,7 @@
       <c r="A32" s="50" t="s">
         <v>186</v>
       </c>
-      <c r="B32" s="148">
+      <c r="B32" s="134">
         <v>1860000</v>
       </c>
     </row>
@@ -49906,7 +50407,7 @@
       <c r="A33" s="50" t="s">
         <v>183</v>
       </c>
-      <c r="B33" s="148">
+      <c r="B33" s="134">
         <v>1280000</v>
       </c>
     </row>
@@ -49914,7 +50415,7 @@
       <c r="A34" s="50" t="s">
         <v>187</v>
       </c>
-      <c r="B34" s="148">
+      <c r="B34" s="134">
         <v>498000</v>
       </c>
     </row>
@@ -49922,7 +50423,7 @@
       <c r="A35" s="50" t="s">
         <v>185</v>
       </c>
-      <c r="B35" s="148">
+      <c r="B35" s="134">
         <v>97000</v>
       </c>
     </row>
@@ -49930,71 +50431,71 @@
       <c r="A36" s="50" t="s">
         <v>179</v>
       </c>
-      <c r="B36" s="148">
+      <c r="B36" s="134">
         <v>3735000</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="160" t="s">
+      <c r="A55" s="146" t="s">
         <v>295</v>
       </c>
-      <c r="B55" s="148" t="s">
+      <c r="B55" s="134" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="161" t="s">
+      <c r="A56" s="147" t="s">
         <v>299</v>
       </c>
-      <c r="B56" s="148">
+      <c r="B56" s="134">
         <v>1350000</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="161" t="s">
+      <c r="A57" s="147" t="s">
         <v>301</v>
       </c>
-      <c r="B57" s="148">
+      <c r="B57" s="134">
         <v>600000</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="161" t="s">
+      <c r="A58" s="147" t="s">
         <v>300</v>
       </c>
-      <c r="B58" s="148">
+      <c r="B58" s="134">
         <v>585000</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" s="161" t="s">
+      <c r="A59" s="147" t="s">
         <v>302</v>
       </c>
-      <c r="B59" s="148">
+      <c r="B59" s="134">
         <v>580000</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" s="161" t="s">
+      <c r="A60" s="147" t="s">
         <v>298</v>
       </c>
-      <c r="B60" s="148">
+      <c r="B60" s="134">
         <v>340000</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" s="161" t="s">
+      <c r="A61" s="147" t="s">
         <v>297</v>
       </c>
-      <c r="B61" s="148">
+      <c r="B61" s="134">
         <v>280000</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" s="161" t="s">
+      <c r="A62" s="147" t="s">
         <v>179</v>
       </c>
-      <c r="B62" s="148">
+      <c r="B62" s="134">
         <v>3735000</v>
       </c>
     </row>
